--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0053659999181</v>
+        <v>4.289920333333334</v>
       </c>
       <c r="H2">
-        <v>1.0053659999181</v>
+        <v>12.869761</v>
       </c>
       <c r="I2">
-        <v>0.2886654113138644</v>
+        <v>0.5109350873302341</v>
       </c>
       <c r="J2">
-        <v>0.2886654113138644</v>
+        <v>0.5109350873302341</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>200.098458342395</v>
+        <v>260.05794</v>
       </c>
       <c r="N2">
-        <v>200.098458342395</v>
+        <v>780.17382</v>
       </c>
       <c r="O2">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="P2">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="Q2">
-        <v>201.1721866534722</v>
+        <v>1115.62784465078</v>
       </c>
       <c r="R2">
-        <v>201.1721866534722</v>
+        <v>10040.65060185702</v>
       </c>
       <c r="S2">
-        <v>0.261258871892516</v>
+        <v>0.4692038345939933</v>
       </c>
       <c r="T2">
-        <v>0.261258871892516</v>
+        <v>0.4692038345939933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0053659999181</v>
+        <v>4.289920333333334</v>
       </c>
       <c r="H3">
-        <v>1.0053659999181</v>
+        <v>12.869761</v>
       </c>
       <c r="I3">
-        <v>0.2886654113138644</v>
+        <v>0.5109350873302341</v>
       </c>
       <c r="J3">
-        <v>0.2886654113138644</v>
+        <v>0.5109350873302341</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.27784798767248</v>
+        <v>3.298516</v>
       </c>
       <c r="N3">
-        <v>3.27784798767248</v>
+        <v>9.895548</v>
       </c>
       <c r="O3">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="P3">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="Q3">
-        <v>3.295436919705875</v>
+        <v>14.15037085822533</v>
       </c>
       <c r="R3">
-        <v>3.295436919705875</v>
+        <v>127.353337724028</v>
       </c>
       <c r="S3">
-        <v>0.004279727463112728</v>
+        <v>0.00595127514918268</v>
       </c>
       <c r="T3">
-        <v>0.004279727463112728</v>
+        <v>0.005951275149182679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0053659999181</v>
+        <v>4.289920333333334</v>
       </c>
       <c r="H4">
-        <v>1.0053659999181</v>
+        <v>12.869761</v>
       </c>
       <c r="I4">
-        <v>0.2886654113138644</v>
+        <v>0.5109350873302341</v>
       </c>
       <c r="J4">
-        <v>0.2886654113138644</v>
+        <v>0.5109350873302341</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.39559791983389</v>
+        <v>5.199381666666667</v>
       </c>
       <c r="N4">
-        <v>4.39559791983389</v>
+        <v>15.598145</v>
       </c>
       <c r="O4">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="P4">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="Q4">
-        <v>4.419184697911719</v>
+        <v>22.30493313259389</v>
       </c>
       <c r="R4">
-        <v>4.419184697911719</v>
+        <v>200.744398193345</v>
       </c>
       <c r="S4">
-        <v>0.005739119448206075</v>
+        <v>0.0093808703380397</v>
       </c>
       <c r="T4">
-        <v>0.005739119448206075</v>
+        <v>0.0093808703380397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0053659999181</v>
+        <v>4.289920333333334</v>
       </c>
       <c r="H5">
-        <v>1.0053659999181</v>
+        <v>12.869761</v>
       </c>
       <c r="I5">
-        <v>0.2886654113138644</v>
+        <v>0.5109350873302341</v>
       </c>
       <c r="J5">
-        <v>0.2886654113138644</v>
+        <v>0.5109350873302341</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.9502827539055</v>
+        <v>5.482828</v>
       </c>
       <c r="N5">
-        <v>4.9502827539055</v>
+        <v>16.448484</v>
       </c>
       <c r="O5">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="P5">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="Q5">
-        <v>4.976845970757529</v>
+        <v>23.52089532136934</v>
       </c>
       <c r="R5">
-        <v>4.976845970757529</v>
+        <v>211.688057892324</v>
       </c>
       <c r="S5">
-        <v>0.006463344588199233</v>
+        <v>0.009892272168345699</v>
       </c>
       <c r="T5">
-        <v>0.006463344588199233</v>
+        <v>0.009892272168345697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0053659999181</v>
+        <v>4.289920333333334</v>
       </c>
       <c r="H6">
-        <v>1.0053659999181</v>
+        <v>12.869761</v>
       </c>
       <c r="I6">
-        <v>0.2886654113138644</v>
+        <v>0.5109350873302341</v>
       </c>
       <c r="J6">
-        <v>0.2886654113138644</v>
+        <v>0.5109350873302341</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.49587591863598</v>
+        <v>5.580850666666667</v>
       </c>
       <c r="N6">
-        <v>5.49587591863598</v>
+        <v>16.742552</v>
       </c>
       <c r="O6">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="P6">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="Q6">
-        <v>5.525366788365267</v>
+        <v>23.94140475223022</v>
       </c>
       <c r="R6">
-        <v>5.525366788365267</v>
+        <v>215.472642770072</v>
       </c>
       <c r="S6">
-        <v>0.007175699175588637</v>
+        <v>0.01006912741482319</v>
       </c>
       <c r="T6">
-        <v>0.007175699175588637</v>
+        <v>0.01006912741482319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0053659999181</v>
+        <v>4.289920333333334</v>
       </c>
       <c r="H7">
-        <v>1.0053659999181</v>
+        <v>12.869761</v>
       </c>
       <c r="I7">
-        <v>0.2886654113138644</v>
+        <v>0.5109350873302341</v>
       </c>
       <c r="J7">
-        <v>0.2886654113138644</v>
+        <v>0.5109350873302341</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.87109421225211</v>
+        <v>3.568123</v>
       </c>
       <c r="N7">
-        <v>2.87109421225211</v>
+        <v>10.704369</v>
       </c>
       <c r="O7">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="P7">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="Q7">
-        <v>2.886500503559912</v>
+        <v>15.30696340953433</v>
       </c>
       <c r="R7">
-        <v>2.886500503559912</v>
+        <v>137.762670685809</v>
       </c>
       <c r="S7">
-        <v>0.003748648746241711</v>
+        <v>0.006437707665849477</v>
       </c>
       <c r="T7">
-        <v>0.003748648746241711</v>
+        <v>0.006437707665849476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.47744129362692</v>
+        <v>1.565458</v>
       </c>
       <c r="H8">
-        <v>2.47744129362692</v>
+        <v>4.696374</v>
       </c>
       <c r="I8">
-        <v>0.7113345886861356</v>
+        <v>0.1864480824333443</v>
       </c>
       <c r="J8">
-        <v>0.7113345886861356</v>
+        <v>0.1864480824333443</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>200.098458342395</v>
+        <v>260.05794</v>
       </c>
       <c r="N8">
-        <v>200.098458342395</v>
+        <v>780.17382</v>
       </c>
       <c r="O8">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="P8">
-        <v>0.9050577646396665</v>
+        <v>0.9183237679872462</v>
       </c>
       <c r="Q8">
-        <v>495.7321834885354</v>
+        <v>407.1097826365199</v>
       </c>
       <c r="R8">
-        <v>495.7321834885354</v>
+        <v>3663.98804372868</v>
       </c>
       <c r="S8">
-        <v>0.6437988927471505</v>
+        <v>0.1712197055941855</v>
       </c>
       <c r="T8">
-        <v>0.6437988927471505</v>
+        <v>0.1712197055941855</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.47744129362692</v>
+        <v>1.565458</v>
       </c>
       <c r="H9">
-        <v>2.47744129362692</v>
+        <v>4.696374</v>
       </c>
       <c r="I9">
-        <v>0.7113345886861356</v>
+        <v>0.1864480824333443</v>
       </c>
       <c r="J9">
-        <v>0.7113345886861356</v>
+        <v>0.1864480824333443</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.27784798767248</v>
+        <v>3.298516</v>
       </c>
       <c r="N9">
-        <v>3.27784798767248</v>
+        <v>9.895548</v>
       </c>
       <c r="O9">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="P9">
-        <v>0.01482591019004837</v>
+        <v>0.011647810645144</v>
       </c>
       <c r="Q9">
-        <v>8.120675958891706</v>
+        <v>5.163688260327999</v>
       </c>
       <c r="R9">
-        <v>8.120675958891706</v>
+        <v>46.47319434295199</v>
       </c>
       <c r="S9">
-        <v>0.01054618272693565</v>
+        <v>0.002171711959333794</v>
       </c>
       <c r="T9">
-        <v>0.01054618272693565</v>
+        <v>0.002171711959333794</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.47744129362692</v>
+        <v>1.565458</v>
       </c>
       <c r="H10">
-        <v>2.47744129362692</v>
+        <v>4.696374</v>
       </c>
       <c r="I10">
-        <v>0.7113345886861356</v>
+        <v>0.1864480824333443</v>
       </c>
       <c r="J10">
-        <v>0.7113345886861356</v>
+        <v>0.1864480824333443</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.39559791983389</v>
+        <v>5.199381666666667</v>
       </c>
       <c r="N10">
-        <v>4.39559791983389</v>
+        <v>15.598145</v>
       </c>
       <c r="O10">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="P10">
-        <v>0.01988156260940442</v>
+        <v>0.01836019989751954</v>
       </c>
       <c r="Q10">
-        <v>10.88983579677707</v>
+        <v>8.139413625136665</v>
       </c>
       <c r="R10">
-        <v>10.88983579677707</v>
+        <v>73.25472262622999</v>
       </c>
       <c r="S10">
-        <v>0.01414244316119835</v>
+        <v>0.003423224063985403</v>
       </c>
       <c r="T10">
-        <v>0.01414244316119835</v>
+        <v>0.003423224063985403</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.47744129362692</v>
+        <v>1.565458</v>
       </c>
       <c r="H11">
-        <v>2.47744129362692</v>
+        <v>4.696374</v>
       </c>
       <c r="I11">
-        <v>0.7113345886861356</v>
+        <v>0.1864480824333443</v>
       </c>
       <c r="J11">
-        <v>0.7113345886861356</v>
+        <v>0.1864480824333443</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.9502827539055</v>
+        <v>5.482828</v>
       </c>
       <c r="N11">
-        <v>4.9502827539055</v>
+        <v>16.448484</v>
       </c>
       <c r="O11">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="P11">
-        <v>0.0223904365915585</v>
+        <v>0.01936111340490499</v>
       </c>
       <c r="Q11">
-        <v>12.26403490965467</v>
+        <v>8.583136955223999</v>
       </c>
       <c r="R11">
-        <v>12.26403490965467</v>
+        <v>77.248232597016</v>
       </c>
       <c r="S11">
-        <v>0.01592709200335926</v>
+        <v>0.003609842468119054</v>
       </c>
       <c r="T11">
-        <v>0.01592709200335926</v>
+        <v>0.003609842468119054</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.47744129362692</v>
+        <v>1.565458</v>
       </c>
       <c r="H12">
-        <v>2.47744129362692</v>
+        <v>4.696374</v>
       </c>
       <c r="I12">
-        <v>0.7113345886861356</v>
+        <v>0.1864480824333443</v>
       </c>
       <c r="J12">
-        <v>0.7113345886861356</v>
+        <v>0.1864480824333443</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.49587591863598</v>
+        <v>5.580850666666667</v>
       </c>
       <c r="N12">
-        <v>5.49587591863598</v>
+        <v>16.742552</v>
       </c>
       <c r="O12">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="P12">
-        <v>0.02485818838817005</v>
+        <v>0.01970725374809732</v>
       </c>
       <c r="Q12">
-        <v>13.61570994547856</v>
+        <v>8.736587322938666</v>
       </c>
       <c r="R12">
-        <v>13.61570994547856</v>
+        <v>78.62928590644799</v>
       </c>
       <c r="S12">
-        <v>0.01768248921258142</v>
+        <v>0.003674379671360084</v>
       </c>
       <c r="T12">
-        <v>0.01768248921258142</v>
+        <v>0.003674379671360084</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.47744129362692</v>
+        <v>1.565458</v>
       </c>
       <c r="H13">
-        <v>2.47744129362692</v>
+        <v>4.696374</v>
       </c>
       <c r="I13">
-        <v>0.7113345886861356</v>
+        <v>0.1864480824333443</v>
       </c>
       <c r="J13">
-        <v>0.7113345886861356</v>
+        <v>0.1864480824333443</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.87109421225211</v>
+        <v>3.568123</v>
       </c>
       <c r="N13">
-        <v>2.87109421225211</v>
+        <v>10.704369</v>
       </c>
       <c r="O13">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="P13">
-        <v>0.01298613758115212</v>
+        <v>0.01259985431708779</v>
       </c>
       <c r="Q13">
-        <v>7.11296735932663</v>
+        <v>5.585746695334</v>
       </c>
       <c r="R13">
-        <v>7.11296735932663</v>
+        <v>50.27172025800599</v>
       </c>
       <c r="S13">
-        <v>0.009237488834910415</v>
+        <v>0.002349218676360514</v>
       </c>
       <c r="T13">
-        <v>0.009237488834910415</v>
+        <v>0.002349218676360514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.540835666666667</v>
+      </c>
+      <c r="H14">
+        <v>7.622507</v>
+      </c>
+      <c r="I14">
+        <v>0.3026168302364216</v>
+      </c>
+      <c r="J14">
+        <v>0.3026168302364217</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>260.05794</v>
+      </c>
+      <c r="N14">
+        <v>780.17382</v>
+      </c>
+      <c r="O14">
+        <v>0.9183237679872462</v>
+      </c>
+      <c r="P14">
+        <v>0.9183237679872462</v>
+      </c>
+      <c r="Q14">
+        <v>660.76448935186</v>
+      </c>
+      <c r="R14">
+        <v>5946.88040416674</v>
+      </c>
+      <c r="S14">
+        <v>0.2779002277990675</v>
+      </c>
+      <c r="T14">
+        <v>0.2779002277990676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.540835666666667</v>
+      </c>
+      <c r="H15">
+        <v>7.622507</v>
+      </c>
+      <c r="I15">
+        <v>0.3026168302364216</v>
+      </c>
+      <c r="J15">
+        <v>0.3026168302364217</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.298516</v>
+      </c>
+      <c r="N15">
+        <v>9.895548</v>
+      </c>
+      <c r="O15">
+        <v>0.011647810645144</v>
+      </c>
+      <c r="P15">
+        <v>0.011647810645144</v>
+      </c>
+      <c r="Q15">
+        <v>8.380987099870666</v>
+      </c>
+      <c r="R15">
+        <v>75.42888389883599</v>
+      </c>
+      <c r="S15">
+        <v>0.003524823536627527</v>
+      </c>
+      <c r="T15">
+        <v>0.003524823536627527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.540835666666667</v>
+      </c>
+      <c r="H16">
+        <v>7.622507</v>
+      </c>
+      <c r="I16">
+        <v>0.3026168302364216</v>
+      </c>
+      <c r="J16">
+        <v>0.3026168302364217</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.199381666666667</v>
+      </c>
+      <c r="N16">
+        <v>15.598145</v>
+      </c>
+      <c r="O16">
+        <v>0.01836019989751954</v>
+      </c>
+      <c r="P16">
+        <v>0.01836019989751954</v>
+      </c>
+      <c r="Q16">
+        <v>13.21077438327944</v>
+      </c>
+      <c r="R16">
+        <v>118.896969449515</v>
+      </c>
+      <c r="S16">
+        <v>0.005556105495494436</v>
+      </c>
+      <c r="T16">
+        <v>0.005556105495494437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.540835666666667</v>
+      </c>
+      <c r="H17">
+        <v>7.622507</v>
+      </c>
+      <c r="I17">
+        <v>0.3026168302364216</v>
+      </c>
+      <c r="J17">
+        <v>0.3026168302364217</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.482828</v>
+      </c>
+      <c r="N17">
+        <v>16.448484</v>
+      </c>
+      <c r="O17">
+        <v>0.01936111340490499</v>
+      </c>
+      <c r="P17">
+        <v>0.01936111340490499</v>
+      </c>
+      <c r="Q17">
+        <v>13.93096493659867</v>
+      </c>
+      <c r="R17">
+        <v>125.378684429388</v>
+      </c>
+      <c r="S17">
+        <v>0.005858998768440241</v>
+      </c>
+      <c r="T17">
+        <v>0.005858998768440242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.540835666666667</v>
+      </c>
+      <c r="H18">
+        <v>7.622507</v>
+      </c>
+      <c r="I18">
+        <v>0.3026168302364216</v>
+      </c>
+      <c r="J18">
+        <v>0.3026168302364217</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.580850666666667</v>
+      </c>
+      <c r="N18">
+        <v>16.742552</v>
+      </c>
+      <c r="O18">
+        <v>0.01970725374809732</v>
+      </c>
+      <c r="P18">
+        <v>0.01970725374809732</v>
+      </c>
+      <c r="Q18">
+        <v>14.18002442420711</v>
+      </c>
+      <c r="R18">
+        <v>127.620219817864</v>
+      </c>
+      <c r="S18">
+        <v>0.005963746661914051</v>
+      </c>
+      <c r="T18">
+        <v>0.005963746661914051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.540835666666667</v>
+      </c>
+      <c r="H19">
+        <v>7.622507</v>
+      </c>
+      <c r="I19">
+        <v>0.3026168302364216</v>
+      </c>
+      <c r="J19">
+        <v>0.3026168302364217</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.568123</v>
+      </c>
+      <c r="N19">
+        <v>10.704369</v>
+      </c>
+      <c r="O19">
+        <v>0.01259985431708779</v>
+      </c>
+      <c r="P19">
+        <v>0.01259985431708779</v>
+      </c>
+      <c r="Q19">
+        <v>9.066014181453667</v>
+      </c>
+      <c r="R19">
+        <v>81.59412763308299</v>
+      </c>
+      <c r="S19">
+        <v>0.0038129279748778</v>
+      </c>
+      <c r="T19">
+        <v>0.0038129279748778</v>
       </c>
     </row>
   </sheetData>
